--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value245.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value245.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1214205259756655</v>
+        <v>1.175199747085571</v>
       </c>
       <c r="B1">
-        <v>0.1148198750261515</v>
+        <v>2.169065952301025</v>
       </c>
       <c r="C1">
-        <v>0.1155784937675769</v>
+        <v>3.201991081237793</v>
       </c>
       <c r="D1">
-        <v>0.1480729185625954</v>
+        <v>3.738319396972656</v>
       </c>
       <c r="E1">
-        <v>0.2351899147619208</v>
+        <v>1.235240578651428</v>
       </c>
     </row>
   </sheetData>
